--- a/biology/Botanique/Thomas_Andrew_Knight/Thomas_Andrew_Knight.xlsx
+++ b/biology/Botanique/Thomas_Andrew_Knight/Thomas_Andrew_Knight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Andrew Knight (né le 12 août 1759 à Ludlow et mort le 11 mai 1838) est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Thomas Knight. Il étudie au Balliol College d’Oxford. Il épouse Frances Felton en 1791. La médaille Knight est instituée en son honneur. Il devient membre de la Royal Society le 21 mars 1805.
 Il est notamment l’auteur de A Treatise on the Culture of the Apple and Pear, On the Manufacture of Cider and Perry (1797), Pomona Herfordiensis (1811) ainsi que de nombreux articles qui lui valent de recevoir la médaille Copley en 1806.
